--- a/result/gr75_03_simulated/details.xlsx
+++ b/result/gr75_03_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5570042133331299</v>
+        <v>0.5299797058105469</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1095.766810796282</v>
+        <v>1019.70200244529</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05529535782422511</v>
+        <v>0.05574637620534637</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0441051004842726</v>
+        <v>0.04437923226334865</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03981675293522523</v>
+        <v>0.03772822871291033</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03318923290920565</v>
+        <v>0.03109668840907373</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03071666363250159</v>
+        <v>0.02985795354131299</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02969331776053175</v>
+        <v>0.02782740690708877</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02683936007228459</v>
+        <v>0.02527091369511278</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02588911507291424</v>
+        <v>0.02450538904166488</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02497387424220367</v>
+        <v>0.02387691084537536</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02420026750722775</v>
+        <v>0.02297260866437747</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02373570844899753</v>
+        <v>0.02229808911495085</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02284191848823063</v>
+        <v>0.02179792141590256</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02257250150586622</v>
+        <v>0.02144499790375659</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02227984909120306</v>
+        <v>0.02099916720422563</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02204303526688087</v>
+        <v>0.02042159354486529</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02179072077004178</v>
+        <v>0.02021302872845707</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02168777222510162</v>
+        <v>0.0201297555755928</v>
       </c>
       <c r="W2" t="n">
-        <v>0.021589432723166</v>
+        <v>0.02007244423370479</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02147048252784542</v>
+        <v>0.01998643468226164</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02135997681864097</v>
+        <v>0.01987723201647739</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7770252227783203</v>
+        <v>0.5624589920043945</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1045.430521019205</v>
+        <v>1035.003525387427</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05665419223302091</v>
+        <v>0.05592175031906621</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04464663702790591</v>
+        <v>0.04503869969666358</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03594724143428087</v>
+        <v>0.03872672915448062</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03184093460096073</v>
+        <v>0.03305653373628736</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03081115446627238</v>
+        <v>0.02972066225805825</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02610133374296298</v>
+        <v>0.02720865533002883</v>
       </c>
       <c r="L3" t="n">
-        <v>0.025770882378728</v>
+        <v>0.0250606663408576</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02467230115522773</v>
+        <v>0.02398243640209744</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02351070116020396</v>
+        <v>0.02336551052206967</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02287026129270953</v>
+        <v>0.02228903468281678</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02260684898352638</v>
+        <v>0.02187927634280718</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02181889055842929</v>
+        <v>0.02154487650747213</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02156301408306814</v>
+        <v>0.02137877325810643</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02124472408984059</v>
+        <v>0.0208338978801405</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02110131204236061</v>
+        <v>0.0207087325597422</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02079151523622093</v>
+        <v>0.02059503258302952</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02062465972400629</v>
+        <v>0.02049387303284274</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02054015673329289</v>
+        <v>0.02037805596261094</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02045184113071005</v>
+        <v>0.02027740795994096</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02037876259296696</v>
+        <v>0.02017550731749369</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6109867095947266</v>
+        <v>0.6526656150817871</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1046.60237033418</v>
+        <v>1033.424683337909</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05652910323024542</v>
+        <v>0.05564009632728495</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04442789582528305</v>
+        <v>0.04354744946236904</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03752389312687216</v>
+        <v>0.03687403323858946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0331891641519392</v>
+        <v>0.03258620175287177</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02993006677843353</v>
+        <v>0.02990718936213414</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0281562517596864</v>
+        <v>0.02752545336459601</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02655655231530548</v>
+        <v>0.02597640403475083</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02523020355889836</v>
+        <v>0.02525711690252885</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02410873154611524</v>
+        <v>0.02402188470921438</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0231395460375039</v>
+        <v>0.02281350020176161</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02245206565676135</v>
+        <v>0.02221199659611388</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02174448399865484</v>
+        <v>0.02151318722595409</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02137376544716365</v>
+        <v>0.02120802539657932</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02112074366331336</v>
+        <v>0.02111358722965319</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02089227137310012</v>
+        <v>0.02078530232559442</v>
       </c>
       <c r="U4" t="n">
-        <v>0.020679275433939</v>
+        <v>0.02068776288762688</v>
       </c>
       <c r="V4" t="n">
-        <v>0.020679275433939</v>
+        <v>0.02036806864636418</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02057198931943368</v>
+        <v>0.02029491206856218</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02042249906608786</v>
+        <v>0.02019228356120901</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02040160565953567</v>
+        <v>0.02014473066935495</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7038908004760742</v>
+        <v>0.5469143390655518</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1047.083123012399</v>
+        <v>1063.546788421147</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05774154749672716</v>
+        <v>0.0568949876258323</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0455057104049859</v>
+        <v>0.04031775537175073</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03757656390132234</v>
+        <v>0.0373899473416082</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03456783765591578</v>
+        <v>0.03056792504716855</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03140861788557794</v>
+        <v>0.02817153958539872</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02685169839193252</v>
+        <v>0.02614937031773353</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02626611273321386</v>
+        <v>0.02460222578907969</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02495783371624623</v>
+        <v>0.0235589348662601</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02349791817709734</v>
+        <v>0.02305193100029102</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02276906607993597</v>
+        <v>0.02256772245392924</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02184736393653204</v>
+        <v>0.02200739658919712</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02154576740911444</v>
+        <v>0.02171231597405218</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02127231689684124</v>
+        <v>0.02162131763673817</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02122424696446948</v>
+        <v>0.02142743126237694</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02081773170987292</v>
+        <v>0.0213466598890132</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02077954848853412</v>
+        <v>0.02109019667127613</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02062442659885868</v>
+        <v>0.0209871096689214</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02053615371290473</v>
+        <v>0.02088912152275559</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0204500486500647</v>
+        <v>0.02078077828494377</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0204109770567719</v>
+        <v>0.02073190620703989</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.674325704574585</v>
+        <v>0.5312392711639404</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1035.425601601146</v>
+        <v>1036.118830085525</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05625578192539658</v>
+        <v>0.05690075257779623</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04384077924847282</v>
+        <v>0.04412507034628728</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03693819076670879</v>
+        <v>0.03935646995284391</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03329822918253415</v>
+        <v>0.03292328026609049</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0299605790628898</v>
+        <v>0.03128124430848177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0277565115252553</v>
+        <v>0.02900267881554905</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02513434329134812</v>
+        <v>0.02724013937342639</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02397280768517332</v>
+        <v>0.02546478869605168</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02294436656754039</v>
+        <v>0.02388498847207237</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02207356204308917</v>
+        <v>0.02248471881598893</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02158252133821737</v>
+        <v>0.02248471881598893</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02141712357094244</v>
+        <v>0.02204649361127386</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02112224715725106</v>
+        <v>0.02165274924881268</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02096616939306117</v>
+        <v>0.02135492653951438</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02067460912757016</v>
+        <v>0.02091017814813053</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02058253276204069</v>
+        <v>0.02082574061839027</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02045264491888958</v>
+        <v>0.0205261673082386</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0203441807683151</v>
+        <v>0.02040471947780422</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02018675129648388</v>
+        <v>0.02029660682536025</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02018373492399894</v>
+        <v>0.02019724814981529</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6645033359527588</v>
+        <v>0.5312492847442627</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1102.43902839747</v>
+        <v>1035.072143769597</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05577181061062642</v>
+        <v>0.05533056042549669</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04333003873615487</v>
+        <v>0.04206417198151873</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03855626066471406</v>
+        <v>0.03544704245960476</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03334479337076213</v>
+        <v>0.0323793742834693</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02993075788147658</v>
+        <v>0.02888594684055329</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02805348025084688</v>
+        <v>0.02667678544153004</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02679749996241199</v>
+        <v>0.02484316089988795</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02564642233293824</v>
+        <v>0.02370465432152377</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0247255006022828</v>
+        <v>0.02287665274178744</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02371098000721063</v>
+        <v>0.02282403770281564</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02324747086650556</v>
+        <v>0.02228142940749529</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02309012621924088</v>
+        <v>0.02185753351322837</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02269060051158467</v>
+        <v>0.02149944621668582</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02250584405195295</v>
+        <v>0.02110417626155506</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02209737321295461</v>
+        <v>0.02085237754081659</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02196613559635793</v>
+        <v>0.02069828468280987</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02176856603498468</v>
+        <v>0.02035823824621688</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02166160776380517</v>
+        <v>0.02029059350227894</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02155599879920538</v>
+        <v>0.02024901104846582</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02149003953991169</v>
+        <v>0.02017684490778942</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6778335571289062</v>
+        <v>0.5312643051147461</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1021.529228980489</v>
+        <v>1011.374670926971</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05559523969148999</v>
+        <v>0.0570572511652736</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04253233568770715</v>
+        <v>0.0439577586025639</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03217611355591431</v>
+        <v>0.03634328275752868</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03217611355591431</v>
+        <v>0.03132400532627549</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02784962256206801</v>
+        <v>0.02878502967848924</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02652041295569647</v>
+        <v>0.0268742208372783</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02551798240526119</v>
+        <v>0.02492156938760278</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02347773483451275</v>
+        <v>0.02307432123487167</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02247944023625422</v>
+        <v>0.02233282366694014</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02209387513785159</v>
+        <v>0.02217077735999274</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02154581129808847</v>
+        <v>0.02129444374671664</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02103563828557299</v>
+        <v>0.02091137235778121</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02076637408228177</v>
+        <v>0.02033841442701992</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02057140224253592</v>
+        <v>0.02012938602753276</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02036067420492841</v>
+        <v>0.02012938602753276</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0201261594479485</v>
+        <v>0.01998249283353178</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02010310392634003</v>
+        <v>0.01989764021239524</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01999643284840958</v>
+        <v>0.0198086934038748</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01994668815273621</v>
+        <v>0.0197530727407901</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01991285046745593</v>
+        <v>0.01971490586602282</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7384543418884277</v>
+        <v>0.546860933303833</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1018.72220146875</v>
+        <v>1084.611399967262</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05624991555065109</v>
+        <v>0.05750392142240357</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04552269783213544</v>
+        <v>0.04281926014358252</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03794705295387033</v>
+        <v>0.03787745822595858</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03283392032740941</v>
+        <v>0.03408283620459283</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02898781903089769</v>
+        <v>0.03158727529567837</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02720505712985469</v>
+        <v>0.02882406738522839</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0249217226248183</v>
+        <v>0.02807490901861303</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02290865472992678</v>
+        <v>0.02587582508782843</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02253091627190679</v>
+        <v>0.02424951095364666</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02188948533431107</v>
+        <v>0.02379350527414254</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02170646111778337</v>
+        <v>0.02341354899532801</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02149726218019776</v>
+        <v>0.02277730864812228</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02100179374129913</v>
+        <v>0.02244332928543035</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02056256003078479</v>
+        <v>0.02196236065885957</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02034749197986932</v>
+        <v>0.02176112971780946</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02019566383101261</v>
+        <v>0.02155536649327599</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02012904466781314</v>
+        <v>0.02147914426930909</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02000498810997098</v>
+        <v>0.02138631101929624</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01988239132650997</v>
+        <v>0.0212481931945412</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01985813258223685</v>
+        <v>0.02114252241651582</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8660135269165039</v>
+        <v>0.5468754768371582</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1054.146016376551</v>
+        <v>1040.785534694567</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05467378827384797</v>
+        <v>0.05761312742640419</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04268779782470212</v>
+        <v>0.04500057984911927</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0353831580617316</v>
+        <v>0.03816266930646862</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03204152241912344</v>
+        <v>0.03285991188474895</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03016822564052207</v>
+        <v>0.03034908270770848</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02819067859874426</v>
+        <v>0.02829960182491375</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02644705191608627</v>
+        <v>0.02568042270553055</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02506500500749427</v>
+        <v>0.02514750068825463</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02359012229857136</v>
+        <v>0.02322430947923576</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02294875187949388</v>
+        <v>0.02260217474920155</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02185817213781186</v>
+        <v>0.02182141918387152</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02185817213781186</v>
+        <v>0.02181488645377573</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02145125607112138</v>
+        <v>0.0214450712299814</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02127340269603601</v>
+        <v>0.02106938496136179</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02097726417206634</v>
+        <v>0.02087129863822416</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02097726417206634</v>
+        <v>0.02078797996051353</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02083826352845113</v>
+        <v>0.02065047816959502</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02068716677079225</v>
+        <v>0.02043844840119715</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02060510725234347</v>
+        <v>0.02039310163327743</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02054865528999125</v>
+        <v>0.02028821705057635</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7247951030731201</v>
+        <v>0.5468752384185791</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1020.602743751157</v>
+        <v>1032.943466937362</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05485086978260845</v>
+        <v>0.05740972819423515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04330390363978821</v>
+        <v>0.04701174230212647</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03659385754244453</v>
+        <v>0.03887248331927829</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03147810176206262</v>
+        <v>0.03316300059999087</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02946725709764382</v>
+        <v>0.0295697074415427</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02773625405588221</v>
+        <v>0.02686255809006518</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02580137208083344</v>
+        <v>0.02621640932262759</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02408682505256822</v>
+        <v>0.02489370009727366</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02262453528217938</v>
+        <v>0.02362597960902373</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02202306289885524</v>
+        <v>0.02269667542996461</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02139257360997465</v>
+        <v>0.02213834163472707</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02094052432356373</v>
+        <v>0.02159560652139055</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02077773216022836</v>
+        <v>0.02118279027441449</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02056996526267156</v>
+        <v>0.0208820513114055</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02042533741152358</v>
+        <v>0.0207010071610337</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02036852450738576</v>
+        <v>0.02055390253073068</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02009541920422216</v>
+        <v>0.0204095419016854</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02001118699568079</v>
+        <v>0.02026379334276661</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01992227406931031</v>
+        <v>0.02020648377732294</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01989479032653326</v>
+        <v>0.02013535023269711</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr75_03_simulated/details.xlsx
+++ b/result/gr75_03_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5299797058105469</v>
+        <v>1.305005550384521</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1019.70200244529</v>
+        <v>851.766690651797</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05574637620534637</v>
+        <v>0.04461639847073016</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04437923226334865</v>
+        <v>0.03243901363710654</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03772822871291033</v>
+        <v>0.03044606920912101</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03109668840907373</v>
+        <v>0.02660201244329346</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02985795354131299</v>
+        <v>0.02637099712875958</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02782740690708877</v>
+        <v>0.02357672271373299</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02527091369511278</v>
+        <v>0.0231007271595054</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02450538904166488</v>
+        <v>0.02120178236391151</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02387691084537536</v>
+        <v>0.01989255730891966</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02297260866437747</v>
+        <v>0.0194553209747155</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02229808911495085</v>
+        <v>0.01780105741251484</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02179792141590256</v>
+        <v>0.01780105741251484</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02144499790375659</v>
+        <v>0.01780105741251484</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02099916720422563</v>
+        <v>0.01750600542627236</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02042159354486529</v>
+        <v>0.0173670899626962</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02021302872845707</v>
+        <v>0.01710828239560704</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0201297555755928</v>
+        <v>0.01690096923101732</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02007244423370479</v>
+        <v>0.01680649263564861</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01998643468226164</v>
+        <v>0.01669356384599649</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01987723201647739</v>
+        <v>0.01660363919399214</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5624589920043945</v>
+        <v>1.368995428085327</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1035.003525387427</v>
+        <v>874.6324544991239</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05592175031906621</v>
+        <v>0.0434544730670968</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04503869969666358</v>
+        <v>0.03527205785988447</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03872672915448062</v>
+        <v>0.02878227267502709</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03305653373628736</v>
+        <v>0.02803011120699287</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02972066225805825</v>
+        <v>0.02409476295666809</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02720865533002883</v>
+        <v>0.02326886552795386</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0250606663408576</v>
+        <v>0.02151150724803208</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02398243640209744</v>
+        <v>0.02090304371883578</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02336551052206967</v>
+        <v>0.01999101683314505</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02228903468281678</v>
+        <v>0.01900762453532197</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02187927634280718</v>
+        <v>0.01857649619336955</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02154487650747213</v>
+        <v>0.0182851854727198</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02137877325810643</v>
+        <v>0.01796576178477818</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0208338978801405</v>
+        <v>0.01787968668837649</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0207087325597422</v>
+        <v>0.01759955508466409</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02059503258302952</v>
+        <v>0.01728912624119711</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02049387303284274</v>
+        <v>0.01728912624119711</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02037805596261094</v>
+        <v>0.01718925739406081</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02027740795994096</v>
+        <v>0.01713236260226915</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02017550731749369</v>
+        <v>0.01704936558477824</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6526656150817871</v>
+        <v>1.421000242233276</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1033.424683337909</v>
+        <v>902.402881040025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05564009632728495</v>
+        <v>0.04465459779664575</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04354744946236904</v>
+        <v>0.03380801703096048</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03687403323858946</v>
+        <v>0.02998254997601633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03258620175287177</v>
+        <v>0.02727520660432462</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02990718936213414</v>
+        <v>0.02415178569633405</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02752545336459601</v>
+        <v>0.02215362233219</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02597640403475083</v>
+        <v>0.02104397999116079</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02525711690252885</v>
+        <v>0.01999239727170278</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02402188470921438</v>
+        <v>0.0198326490537921</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02281350020176161</v>
+        <v>0.01918579663232639</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02221199659611388</v>
+        <v>0.01918579663232639</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02151318722595409</v>
+        <v>0.01907014613821567</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02120802539657932</v>
+        <v>0.01890915854437544</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02111358722965319</v>
+        <v>0.01861137524560301</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02078530232559442</v>
+        <v>0.01843069277144846</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02068776288762688</v>
+        <v>0.01790849064001159</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02036806864636418</v>
+        <v>0.01790849064001159</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02029491206856218</v>
+        <v>0.01769675393069265</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02019228356120901</v>
+        <v>0.01769675393069265</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02014473066935495</v>
+        <v>0.01759069943547807</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5469143390655518</v>
+        <v>1.183997631072998</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1063.546788421147</v>
+        <v>898.0682056365113</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0568949876258323</v>
+        <v>0.04430624886943869</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04031775537175073</v>
+        <v>0.03566807881646188</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0373899473416082</v>
+        <v>0.03042019152077201</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03056792504716855</v>
+        <v>0.02649481746006507</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02817153958539872</v>
+        <v>0.02391993207340458</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02614937031773353</v>
+        <v>0.02288020828371191</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02460222578907969</v>
+        <v>0.02193284670466573</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0235589348662601</v>
+        <v>0.02130802232331508</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02305193100029102</v>
+        <v>0.01977241440798943</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02256772245392924</v>
+        <v>0.01977241440798943</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02200739658919712</v>
+        <v>0.01945730229491135</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02171231597405218</v>
+        <v>0.01889110099806826</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02162131763673817</v>
+        <v>0.01858466795853941</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02142743126237694</v>
+        <v>0.01854770680087788</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0213466598890132</v>
+        <v>0.01795076609802849</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02109019667127613</v>
+        <v>0.01777982878205156</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0209871096689214</v>
+        <v>0.01774378264622854</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02088912152275559</v>
+        <v>0.01755462798429056</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02078077828494377</v>
+        <v>0.01755462798429056</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02073190620703989</v>
+        <v>0.01750620283891834</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5312392711639404</v>
+        <v>1.159997224807739</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1036.118830085525</v>
+        <v>910.6015182520932</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05690075257779623</v>
+        <v>0.04387034731720904</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04412507034628728</v>
+        <v>0.0347910633317176</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03935646995284391</v>
+        <v>0.03034266669368169</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03292328026609049</v>
+        <v>0.02673611234633352</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03128124430848177</v>
+        <v>0.02333066885740094</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02900267881554905</v>
+        <v>0.02325884745652523</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02724013937342639</v>
+        <v>0.02206010123471652</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02546478869605168</v>
+        <v>0.02130822304928019</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02388498847207237</v>
+        <v>0.01988971820390992</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02248471881598893</v>
+        <v>0.01937983300356181</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02248471881598893</v>
+        <v>0.01925775489101959</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02204649361127386</v>
+        <v>0.01887335930149878</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02165274924881268</v>
+        <v>0.01855828362348683</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02135492653951438</v>
+        <v>0.0183190509592909</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02091017814813053</v>
+        <v>0.0183104041948123</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02082574061839027</v>
+        <v>0.0181194663485884</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0205261673082386</v>
+        <v>0.01801038822055045</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02040471947780422</v>
+        <v>0.01783987082863542</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02029660682536025</v>
+        <v>0.01775051692499207</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02019724814981529</v>
+        <v>0.01775051692499207</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5312492847442627</v>
+        <v>1.232996940612793</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1035.072143769597</v>
+        <v>917.1301915141448</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05533056042549669</v>
+        <v>0.0444722041294939</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04206417198151873</v>
+        <v>0.03534558046979889</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03544704245960476</v>
+        <v>0.0319354870543627</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0323793742834693</v>
+        <v>0.02775507026129982</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02888594684055329</v>
+        <v>0.02595038433668952</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02667678544153004</v>
+        <v>0.02432482557883855</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02484316089988795</v>
+        <v>0.02237790264778471</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02370465432152377</v>
+        <v>0.02138517738692357</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02287665274178744</v>
+        <v>0.01976942256292904</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02282403770281564</v>
+        <v>0.01976942256292904</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02228142940749529</v>
+        <v>0.01946107285603292</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02185753351322837</v>
+        <v>0.01899327317556576</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02149944621668582</v>
+        <v>0.01887279591297758</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02110417626155506</v>
+        <v>0.0187237979903564</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02085237754081659</v>
+        <v>0.01842200195293347</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02069828468280987</v>
+        <v>0.01841106564940834</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02035823824621688</v>
+        <v>0.0181912081633987</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02029059350227894</v>
+        <v>0.01808447626887423</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02024901104846582</v>
+        <v>0.01799062854291953</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02017684490778942</v>
+        <v>0.01787778151099697</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5312643051147461</v>
+        <v>1.242002725601196</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1011.374670926971</v>
+        <v>919.9091499951992</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0570572511652736</v>
+        <v>0.04451769468631686</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0439577586025639</v>
+        <v>0.03197527816349432</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03634328275752868</v>
+        <v>0.02995123243135885</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03132400532627549</v>
+        <v>0.02675130398150486</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02878502967848924</v>
+        <v>0.0259565787887662</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0268742208372783</v>
+        <v>0.02388319101200349</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02492156938760278</v>
+        <v>0.02325506421341361</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02307432123487167</v>
+        <v>0.02234585244204017</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02233282366694014</v>
+        <v>0.02139828456141693</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02217077735999274</v>
+        <v>0.01999419294145042</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02129444374671664</v>
+        <v>0.01977988618421092</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02091137235778121</v>
+        <v>0.01908262560858954</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02033841442701992</v>
+        <v>0.01895793802472854</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02012938602753276</v>
+        <v>0.01895483573844277</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02012938602753276</v>
+        <v>0.0183596799989525</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01998249283353178</v>
+        <v>0.0183596799989525</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01989764021239524</v>
+        <v>0.0182768383029465</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0198086934038748</v>
+        <v>0.0181305727547759</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0197530727407901</v>
+        <v>0.01804585080435139</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01971490586602282</v>
+        <v>0.01793195224162181</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.546860933303833</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1084.611399967262</v>
+        <v>927.1509021990787</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05750392142240357</v>
+        <v>0.04509667442095978</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04281926014358252</v>
+        <v>0.03665096794071954</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03787745822595858</v>
+        <v>0.03212922397404209</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03408283620459283</v>
+        <v>0.02916262826187395</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03158727529567837</v>
+        <v>0.02662232066685439</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02882406738522839</v>
+        <v>0.02411898150173592</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02807490901861303</v>
+        <v>0.02190544906941409</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02587582508782843</v>
+        <v>0.02080764454452656</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02424951095364666</v>
+        <v>0.02076528758226095</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02379350527414254</v>
+        <v>0.02028608273660186</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02341354899532801</v>
+        <v>0.01923440888903961</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02277730864812228</v>
+        <v>0.01923440888903961</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02244332928543035</v>
+        <v>0.01923440888903961</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02196236065885957</v>
+        <v>0.01908696654225295</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02176112971780946</v>
+        <v>0.0187454289824599</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02155536649327599</v>
+        <v>0.01866823189172384</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02147914426930909</v>
+        <v>0.01845686491549348</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02138631101929624</v>
+        <v>0.01822911987503026</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0212481931945412</v>
+        <v>0.01813832731706721</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02114252241651582</v>
+        <v>0.01807311700193135</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5468754768371582</v>
+        <v>1.318007707595825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1040.785534694567</v>
+        <v>911.4635020143451</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05761312742640419</v>
+        <v>0.04357593814982216</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04500057984911927</v>
+        <v>0.03553456830912664</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03816266930646862</v>
+        <v>0.02878567404603457</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03285991188474895</v>
+        <v>0.02781751323179574</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03034908270770848</v>
+        <v>0.02693320290480431</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02829960182491375</v>
+        <v>0.02571314743971508</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02568042270553055</v>
+        <v>0.0243876529389581</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02514750068825463</v>
+        <v>0.0230125474293855</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02322430947923576</v>
+        <v>0.02265777527651826</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02260217474920155</v>
+        <v>0.02111694977926074</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02182141918387152</v>
+        <v>0.02060718745155351</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02181488645377573</v>
+        <v>0.02032658530770004</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0214450712299814</v>
+        <v>0.01943961474866919</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02106938496136179</v>
+        <v>0.01922566047956718</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02087129863822416</v>
+        <v>0.01857751986911808</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02078797996051353</v>
+        <v>0.0182734113453769</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02065047816959502</v>
+        <v>0.01805440101080355</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02043844840119715</v>
+        <v>0.01791740280093362</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02039310163327743</v>
+        <v>0.01785388520988454</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02028821705057635</v>
+        <v>0.01776731972737514</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5468752384185791</v>
+        <v>1.218000888824463</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1032.943466937362</v>
+        <v>934.2241717391644</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05740972819423515</v>
+        <v>0.04438798055301021</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04701174230212647</v>
+        <v>0.03463524761627822</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03887248331927829</v>
+        <v>0.02948010945279311</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03316300059999087</v>
+        <v>0.02720146160545173</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0295697074415427</v>
+        <v>0.02632371822122969</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02686255809006518</v>
+        <v>0.02476211497892341</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02621640932262759</v>
+        <v>0.02279600589706349</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02489370009727366</v>
+        <v>0.02241868421440429</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02362597960902373</v>
+        <v>0.02059223813543031</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02269667542996461</v>
+        <v>0.02056772173536505</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02213834163472707</v>
+        <v>0.0200340398720046</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02159560652139055</v>
+        <v>0.01889120088728964</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02118279027441449</v>
+        <v>0.01889120088728964</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0208820513114055</v>
+        <v>0.01889120088728964</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0207010071610337</v>
+        <v>0.01889120088728964</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02055390253073068</v>
+        <v>0.01872988689077452</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0204095419016854</v>
+        <v>0.01855733593714901</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02026379334276661</v>
+        <v>0.01835534964016067</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02020648377732294</v>
+        <v>0.01832567291430599</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02013535023269711</v>
+        <v>0.01821099749978878</v>
       </c>
     </row>
   </sheetData>
